--- a/tests/testpwid.xlsx
+++ b/tests/testpwid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="0" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -1094,17 +1094,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="67" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="250">
@@ -1668,15 +1668,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="61"/>
+      <c r="A2" s="63"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="61"/>
+      <c r="A3" s="63"/>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="28"/>
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2495,9 +2495,7 @@
       <c r="X29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y29" s="4">
-        <v>0</v>
-      </c>
+      <c r="Y29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2514,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2583,7 +2581,9 @@
         <f>Populations!$C$4</f>
         <v>Clients</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -2591,7 +2591,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2622,7 +2622,9 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="3" t="str">
@@ -2783,7 +2785,9 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="J19" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="3" t="str">
@@ -3087,7 +3091,9 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="F45" s="4">
+        <v>1</v>
+      </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -3321,7 +3327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
@@ -13773,7 +13779,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="62">
+      <c r="P45" s="60">
         <v>1E-3</v>
       </c>
       <c r="Q45" s="9"/>
@@ -14109,8 +14115,8 @@
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
-      <c r="L58" s="63"/>
-      <c r="M58" s="63"/>
+      <c r="L58" s="61"/>
+      <c r="M58" s="61"/>
       <c r="N58" s="9"/>
       <c r="O58" s="9"/>
       <c r="P58" s="9">

--- a/tests/testpwid.xlsx
+++ b/tests/testpwid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="0" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -1712,8 +1712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="Y30" sqref="Y30"/>
+    <sheetView topLeftCell="J13" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2256,9 +2256,7 @@
       <c r="X19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Y19" s="9">
-        <v>0</v>
-      </c>
+      <c r="Y19" s="9"/>
     </row>
     <row r="20" spans="1:25">
       <c r="B20" s="3" t="str">
@@ -2512,8 +2510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3327,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12576,7 +12574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y85"/>
   <sheetViews>
-    <sheetView topLeftCell="K67" workbookViewId="0">
+    <sheetView topLeftCell="J56" workbookViewId="0">
       <selection activeCell="X83" sqref="X83:Y83"/>
     </sheetView>
   </sheetViews>

--- a/tests/testpwid.xlsx
+++ b/tests/testpwid.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="0" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="19420" windowHeight="10960" tabRatio="901" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="131">
   <si>
     <t>O P T I M A</t>
   </si>
@@ -503,6 +503,9 @@
   <si>
     <t>People who inject drugs</t>
   </si>
+  <si>
+    <t>Births</t>
+  </si>
 </sst>
 </file>
 
@@ -700,7 +703,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="250">
+  <cellStyleXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -868,6 +871,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1107,7 +1114,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="250">
+  <cellStyles count="254">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="6"/>
     <cellStyle name="Comma 2 2" xfId="4"/>
@@ -1213,6 +1220,8 @@
     <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink 10" xfId="79"/>
     <cellStyle name="Followed Hyperlink 11" xfId="80"/>
     <cellStyle name="Followed Hyperlink 12" xfId="81"/>
@@ -1351,6 +1360,8 @@
     <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="7"/>
     <cellStyle name="Normal 3" xfId="8"/>
@@ -2508,10 +2519,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3153,12 +3164,12 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+    <row r="53" spans="1:10" s="53" customFormat="1">
+      <c r="A53" s="54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" s="53" customFormat="1">
       <c r="C54" s="3" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
@@ -3192,8 +3203,8 @@
         <v>F 15+</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="B55" s="3" t="str">
+    <row r="55" spans="1:10" s="53" customFormat="1">
+      <c r="B55" s="55" t="str">
         <f>Populations!$C$3</f>
         <v>FSW</v>
       </c>
@@ -3201,17 +3212,19 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="G55" s="4">
+        <v>1</v>
+      </c>
+      <c r="H55" s="4">
+        <v>1</v>
+      </c>
       <c r="I55" s="4"/>
-      <c r="J55" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="B56" s="3" t="str">
-        <f>Populations!$C$4</f>
-        <v>Clients</v>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" s="53" customFormat="1">
+      <c r="B56" s="55" t="str">
+        <f>Populations!$C$8</f>
+        <v>F 0-14</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -3219,96 +3232,186 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="4">
-        <v>15</v>
-      </c>
+      <c r="I56" s="4"/>
       <c r="J56" s="4"/>
     </row>
-    <row r="57" spans="1:10">
-      <c r="B57" s="3" t="str">
-        <f>Populations!$C$5</f>
-        <v>MSM</v>
+    <row r="57" spans="1:10" s="53" customFormat="1">
+      <c r="B57" s="55" t="str">
+        <f>Populations!$C$10</f>
+        <v>F 15+</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4">
-        <v>15</v>
-      </c>
+      <c r="G57" s="4">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4">
+        <v>1</v>
+      </c>
+      <c r="I57" s="4"/>
       <c r="J57" s="4"/>
     </row>
-    <row r="58" spans="1:10" s="53" customFormat="1">
-      <c r="B58" s="3" t="str">
+    <row r="58" spans="1:10" s="53" customFormat="1"/>
+    <row r="59" spans="1:10" s="53" customFormat="1"/>
+    <row r="60" spans="1:10" s="53" customFormat="1"/>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="C62" s="3" t="str">
+        <f>Populations!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="D62" s="3" t="str">
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="E62" s="3" t="str">
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="F62" s="3" t="str">
         <f>Populations!$C$6</f>
         <v>PWID</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="B59" s="3" t="str">
+      <c r="G62" s="3" t="str">
         <f>Populations!$C$7</f>
         <v>M 0-14</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="B60" s="3" t="str">
+      <c r="H62" s="3" t="str">
         <f>Populations!$C$8</f>
         <v>F 0-14</v>
       </c>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="B61" s="3" t="str">
+      <c r="I62" s="3" t="str">
         <f>Populations!$C$9</f>
         <v>M 15+</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="B62" s="3" t="str">
+      <c r="J62" s="3" t="str">
         <f>Populations!$C$10</f>
         <v>F 15+</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="B63" s="3" t="str">
+        <f>Populations!$C$3</f>
+        <v>FSW</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="B64" s="3" t="str">
+        <f>Populations!$C$4</f>
+        <v>Clients</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4">
+        <v>15</v>
+      </c>
+      <c r="J64" s="4"/>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" s="3" t="str">
+        <f>Populations!$C$5</f>
+        <v>MSM</v>
+      </c>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4">
+        <v>15</v>
+      </c>
+      <c r="J65" s="4"/>
+    </row>
+    <row r="66" spans="2:10" s="53" customFormat="1">
+      <c r="B66" s="3" t="str">
+        <f>Populations!$C$6</f>
+        <v>PWID</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" s="3" t="str">
+        <f>Populations!$C$7</f>
+        <v>M 0-14</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" s="3" t="str">
+        <f>Populations!$C$8</f>
+        <v>F 0-14</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" s="3" t="str">
+        <f>Populations!$C$9</f>
+        <v>M 15+</v>
+      </c>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+    </row>
+    <row r="70" spans="2:10">
+      <c r="B70" s="3" t="str">
+        <f>Populations!$C$10</f>
+        <v>F 15+</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3325,7 +3428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
